--- a/data/cleanedData/tmp/gdp.xlsx
+++ b/data/cleanedData/tmp/gdp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\Downloads\DV\Swinburne-COS30045-Data-Vis-Project\data\cleanedData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\Downloads\DV\Swinburne-COS30045-Data-Vis-Project\data\cleanedData\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED651D2-3B50-4A59-844D-7DCD10743D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2907D6F-06E3-46D6-8CEF-6EC49500A29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>1980</t>
   </si>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6750,2230 +6750,1846 @@
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="6" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B47">
-        <v>2258390200000</v>
+        <v>20428055000</v>
       </c>
       <c r="C47">
-        <v>2354611700000</v>
+        <v>21198916000</v>
       </c>
       <c r="D47">
-        <v>2431837000000</v>
+        <v>21518273000</v>
       </c>
       <c r="E47">
-        <v>2520117700000</v>
+        <v>21799959000</v>
       </c>
       <c r="F47">
-        <v>2631277000000</v>
+        <v>22182595000</v>
       </c>
       <c r="G47">
-        <v>2767045800000</v>
+        <v>23136570000</v>
       </c>
       <c r="H47">
-        <v>2858193500000</v>
+        <v>24797210000</v>
       </c>
       <c r="I47">
-        <v>2991067000000</v>
+        <v>26269448000</v>
       </c>
       <c r="J47">
-        <v>3190321000000</v>
+        <v>27898989000</v>
       </c>
       <c r="K47">
-        <v>3347469300000</v>
+        <v>29207550000</v>
       </c>
       <c r="L47">
-        <v>3509518000000</v>
+        <v>30431945000</v>
       </c>
       <c r="M47">
-        <v>3633171000000</v>
+        <v>30869662000</v>
       </c>
       <c r="N47">
-        <v>3665890600000</v>
+        <v>30622861000</v>
       </c>
       <c r="O47">
-        <v>3649056300000</v>
+        <v>30731020000</v>
       </c>
       <c r="P47">
-        <v>3688589400000</v>
+        <v>31540101000</v>
       </c>
       <c r="Q47">
-        <v>3785636200000</v>
+        <v>32929827000</v>
       </c>
       <c r="R47">
-        <v>3904273000000</v>
+        <v>34295374000</v>
       </c>
       <c r="S47">
-        <v>3942583000000</v>
+        <v>34458243000</v>
       </c>
       <c r="T47">
-        <v>3892499200000</v>
+        <v>35591990000</v>
       </c>
       <c r="U47">
-        <v>3879501000000</v>
+        <v>36412527000</v>
       </c>
       <c r="V47">
-        <v>3986755400000</v>
+        <v>36630893000</v>
       </c>
       <c r="W47">
-        <v>4002148500000</v>
+        <v>38015504000</v>
       </c>
       <c r="X47">
-        <v>4003828000000</v>
+        <v>38223397000</v>
       </c>
       <c r="Y47">
-        <v>4065291700000</v>
+        <v>39344288000</v>
       </c>
       <c r="Z47">
-        <v>4154163700000</v>
+        <v>41352536000</v>
       </c>
       <c r="AA47">
-        <v>4229100700000</v>
+        <v>43795096000</v>
       </c>
       <c r="AB47">
-        <v>4287139000000</v>
+        <v>46629730000</v>
       </c>
       <c r="AC47">
-        <v>4350758600000</v>
+        <v>49824207000</v>
       </c>
       <c r="AD47">
-        <v>4297492800000</v>
+        <v>49939940000</v>
       </c>
       <c r="AE47">
-        <v>4052826200000</v>
+        <v>51591420000</v>
       </c>
       <c r="AF47">
-        <v>4218907800000</v>
+        <v>55748903000</v>
       </c>
       <c r="AG47">
-        <v>4219912300000</v>
+        <v>58603864000</v>
       </c>
       <c r="AH47">
-        <v>4277925600000</v>
+        <v>61281290000</v>
       </c>
       <c r="AI47">
-        <v>4363702200000</v>
+        <v>63608656000</v>
       </c>
       <c r="AJ47">
-        <v>4376627800000</v>
+        <v>66801880000</v>
       </c>
       <c r="AK47">
-        <v>4444930400000</v>
+        <v>70120415000</v>
       </c>
       <c r="AL47">
-        <v>4478437700000</v>
+        <v>73074950000</v>
       </c>
       <c r="AM47">
-        <v>4553466400000</v>
+        <v>75879540000</v>
       </c>
       <c r="AN47">
-        <v>4580062000000</v>
+        <v>80165170000</v>
       </c>
       <c r="AO47">
-        <v>4569053500000</v>
+        <v>84264940000</v>
       </c>
       <c r="AP47">
-        <v>4363130800000</v>
+        <v>84054150000</v>
       </c>
       <c r="AQ47">
-        <v>4435431000000</v>
+        <v>90372800000</v>
       </c>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B48">
-        <v>20428055000</v>
+        <v>41758163000</v>
       </c>
       <c r="C48">
-        <v>21198916000</v>
+        <v>44657058000</v>
       </c>
       <c r="D48">
-        <v>21518273000</v>
+        <v>47311094000</v>
       </c>
       <c r="E48">
-        <v>21799959000</v>
+        <v>50269090000</v>
       </c>
       <c r="F48">
-        <v>22182595000</v>
+        <v>54170874000</v>
       </c>
       <c r="G48">
-        <v>23136570000</v>
+        <v>53615485000</v>
       </c>
       <c r="H48">
-        <v>24797210000</v>
+        <v>54280640000</v>
       </c>
       <c r="I48">
-        <v>26269448000</v>
+        <v>57098850000</v>
       </c>
       <c r="J48">
-        <v>27898989000</v>
+        <v>62773174000</v>
       </c>
       <c r="K48">
-        <v>29207550000</v>
+        <v>68460175000</v>
       </c>
       <c r="L48">
-        <v>30431945000</v>
+        <v>74627424000</v>
       </c>
       <c r="M48">
-        <v>30869662000</v>
+        <v>81750970000</v>
       </c>
       <c r="N48">
-        <v>30622861000</v>
+        <v>89014630000</v>
       </c>
       <c r="O48">
-        <v>30731020000</v>
+        <v>97822580000</v>
       </c>
       <c r="P48">
-        <v>31540101000</v>
+        <v>106834035000</v>
       </c>
       <c r="Q48">
-        <v>32929827000</v>
+        <v>117334840000</v>
       </c>
       <c r="R48">
-        <v>34295374000</v>
+        <v>129071500000</v>
       </c>
       <c r="S48">
-        <v>34458243000</v>
+        <v>138523070000</v>
       </c>
       <c r="T48">
-        <v>35591990000</v>
+        <v>128328580000</v>
       </c>
       <c r="U48">
-        <v>36412527000</v>
+        <v>136204894000</v>
       </c>
       <c r="V48">
-        <v>36630893000</v>
+        <v>148271100000</v>
       </c>
       <c r="W48">
-        <v>38015504000</v>
+        <v>149038680000</v>
       </c>
       <c r="X48">
-        <v>38223397000</v>
+        <v>157073330000</v>
       </c>
       <c r="Y48">
-        <v>39344288000</v>
+        <v>166165510000</v>
       </c>
       <c r="Z48">
-        <v>41352536000</v>
+        <v>177437250000</v>
       </c>
       <c r="AA48">
-        <v>43795096000</v>
+        <v>186898450000</v>
       </c>
       <c r="AB48">
-        <v>46629730000</v>
+        <v>197336450000</v>
       </c>
       <c r="AC48">
-        <v>49824207000</v>
+        <v>209766250000</v>
       </c>
       <c r="AD48">
-        <v>49939940000</v>
+        <v>219901670000</v>
       </c>
       <c r="AE48">
-        <v>51591420000</v>
+        <v>216573400000</v>
       </c>
       <c r="AF48">
-        <v>55748903000</v>
+        <v>232653640000</v>
       </c>
       <c r="AG48">
-        <v>58603864000</v>
+        <v>244970110000</v>
       </c>
       <c r="AH48">
-        <v>61281290000</v>
+        <v>258378450000</v>
       </c>
       <c r="AI48">
-        <v>63608656000</v>
+        <v>270506020000</v>
       </c>
       <c r="AJ48">
-        <v>66801880000</v>
+        <v>286754570000</v>
       </c>
       <c r="AK48">
-        <v>70120415000</v>
+        <v>301354750000</v>
       </c>
       <c r="AL48">
-        <v>73074950000</v>
+        <v>314764400000</v>
       </c>
       <c r="AM48">
-        <v>75879540000</v>
+        <v>333060770000</v>
       </c>
       <c r="AN48">
-        <v>80165170000</v>
+        <v>349191180000</v>
       </c>
       <c r="AO48">
-        <v>84264940000</v>
+        <v>364601670000</v>
       </c>
       <c r="AP48">
-        <v>84054150000</v>
+        <v>344422940000</v>
       </c>
       <c r="AQ48">
-        <v>90372800000</v>
+        <v>355073030000</v>
       </c>
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B49">
-        <v>41758163000</v>
+        <v>3269193700</v>
       </c>
       <c r="C49">
-        <v>44657058000</v>
+        <v>3318519600</v>
       </c>
       <c r="D49">
-        <v>47311094000</v>
+        <v>3073664800</v>
       </c>
       <c r="E49">
-        <v>50269090000</v>
+        <v>3129632500</v>
       </c>
       <c r="F49">
-        <v>54170874000</v>
+        <v>3120650000</v>
       </c>
       <c r="G49">
-        <v>53615485000</v>
+        <v>3753725000</v>
       </c>
       <c r="H49">
-        <v>54280640000</v>
+        <v>3854798300</v>
       </c>
       <c r="I49">
-        <v>57098850000</v>
+        <v>3849433900</v>
       </c>
       <c r="J49">
-        <v>62773174000</v>
+        <v>4133896400</v>
       </c>
       <c r="K49">
-        <v>68460175000</v>
+        <v>4306585000</v>
       </c>
       <c r="L49">
-        <v>74627424000</v>
+        <v>4198817500</v>
       </c>
       <c r="M49">
-        <v>81750970000</v>
+        <v>4691977000</v>
       </c>
       <c r="N49">
-        <v>89014630000</v>
+        <v>4540958000</v>
       </c>
       <c r="O49">
-        <v>97822580000</v>
+        <v>4685005300</v>
       </c>
       <c r="P49">
-        <v>106834035000</v>
+        <v>4862095400</v>
       </c>
       <c r="Q49">
-        <v>117334840000</v>
+        <v>4906876400</v>
       </c>
       <c r="R49">
-        <v>129071500000</v>
+        <v>5253095000</v>
       </c>
       <c r="S49">
-        <v>138523070000</v>
+        <v>5506768000</v>
       </c>
       <c r="T49">
-        <v>128328580000</v>
+        <v>5923722000</v>
       </c>
       <c r="U49">
-        <v>136204894000</v>
+        <v>6261430300</v>
       </c>
       <c r="V49">
-        <v>148271100000</v>
+        <v>6257621000</v>
       </c>
       <c r="W49">
-        <v>149038680000</v>
+        <v>7219807700</v>
       </c>
       <c r="X49">
-        <v>157073330000</v>
+        <v>7444077600</v>
       </c>
       <c r="Y49">
-        <v>166165510000</v>
+        <v>8122906000</v>
       </c>
       <c r="Z49">
-        <v>177437250000</v>
+        <v>8249623000</v>
       </c>
       <c r="AA49">
-        <v>186898450000</v>
+        <v>8788718000</v>
       </c>
       <c r="AB49">
-        <v>197336450000</v>
+        <v>9198464000</v>
       </c>
       <c r="AC49">
-        <v>209766250000</v>
+        <v>9519824000</v>
       </c>
       <c r="AD49">
-        <v>219901670000</v>
+        <v>9974219000</v>
       </c>
       <c r="AE49">
-        <v>216573400000</v>
+        <v>10453612000</v>
       </c>
       <c r="AF49">
-        <v>232653640000</v>
+        <v>11009110000</v>
       </c>
       <c r="AG49">
-        <v>244970110000</v>
+        <v>11362847000</v>
       </c>
       <c r="AH49">
-        <v>258378450000</v>
+        <v>11267770000</v>
       </c>
       <c r="AI49">
-        <v>270506020000</v>
+        <v>11526373000</v>
       </c>
       <c r="AJ49">
-        <v>286754570000</v>
+        <v>12342981000</v>
       </c>
       <c r="AK49">
-        <v>301354750000</v>
+        <v>13104764000</v>
       </c>
       <c r="AL49">
-        <v>314764400000</v>
+        <v>13871695000</v>
       </c>
       <c r="AM49">
-        <v>333060770000</v>
+        <v>14607651000</v>
       </c>
       <c r="AN49">
-        <v>349191180000</v>
+        <v>15301001000</v>
       </c>
       <c r="AO49">
-        <v>364601670000</v>
+        <v>16028741000</v>
       </c>
       <c r="AP49">
-        <v>344422940000</v>
+        <v>15830714000</v>
       </c>
       <c r="AQ49">
-        <v>355073030000</v>
+        <v>16313965000</v>
       </c>
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B50">
-        <v>3269193700</v>
+        <v>5198144500</v>
       </c>
       <c r="C50">
-        <v>3318519600</v>
+        <v>5631772700</v>
       </c>
       <c r="D50">
-        <v>3073664800</v>
+        <v>5844618000</v>
       </c>
       <c r="E50">
-        <v>3129632500</v>
+        <v>5670600000</v>
       </c>
       <c r="F50">
-        <v>3120650000</v>
+        <v>6219578400</v>
       </c>
       <c r="G50">
-        <v>3753725000</v>
+        <v>6601766000</v>
       </c>
       <c r="H50">
-        <v>3854798300</v>
+        <v>6903179300</v>
       </c>
       <c r="I50">
-        <v>3849433900</v>
+        <v>7020231000</v>
       </c>
       <c r="J50">
-        <v>4133896400</v>
+        <v>7560564700</v>
       </c>
       <c r="K50">
-        <v>4306585000</v>
+        <v>7887910400</v>
       </c>
       <c r="L50">
-        <v>4198817500</v>
+        <v>8253518000</v>
       </c>
       <c r="M50">
-        <v>4691977000</v>
+        <v>8779114000</v>
       </c>
       <c r="N50">
-        <v>4540958000</v>
+        <v>9139621000</v>
       </c>
       <c r="O50">
-        <v>4685005300</v>
+        <v>9491483000</v>
       </c>
       <c r="P50">
-        <v>4862095400</v>
+        <v>10271303000</v>
       </c>
       <c r="Q50">
-        <v>4906876400</v>
+        <v>10627558000</v>
       </c>
       <c r="R50">
-        <v>5253095000</v>
+        <v>11193824000</v>
       </c>
       <c r="S50">
-        <v>5506768000</v>
+        <v>11758958000</v>
       </c>
       <c r="T50">
-        <v>5923722000</v>
+        <v>12113653000</v>
       </c>
       <c r="U50">
-        <v>6261430300</v>
+        <v>12648177000</v>
       </c>
       <c r="V50">
-        <v>6257621000</v>
+        <v>13432364000</v>
       </c>
       <c r="W50">
-        <v>7219807700</v>
+        <v>14077103000</v>
       </c>
       <c r="X50">
-        <v>7444077600</v>
+        <v>14094015000</v>
       </c>
       <c r="Y50">
-        <v>8122906000</v>
+        <v>14650030000</v>
       </c>
       <c r="Z50">
-        <v>8249623000</v>
+        <v>15336032000</v>
       </c>
       <c r="AA50">
-        <v>8788718000</v>
+        <v>15869601000</v>
       </c>
       <c r="AB50">
-        <v>9198464000</v>
+        <v>16403552000</v>
       </c>
       <c r="AC50">
-        <v>9519824000</v>
+        <v>16963169000</v>
       </c>
       <c r="AD50">
-        <v>9974219000</v>
+        <v>17998709000</v>
       </c>
       <c r="AE50">
-        <v>10453612000</v>
+        <v>18814605000</v>
       </c>
       <c r="AF50">
-        <v>11009110000</v>
+        <v>19720794000</v>
       </c>
       <c r="AG50">
-        <v>11362847000</v>
+        <v>20395606000</v>
       </c>
       <c r="AH50">
-        <v>11267770000</v>
+        <v>21348106000</v>
       </c>
       <c r="AI50">
-        <v>11526373000</v>
+        <v>22100658000</v>
       </c>
       <c r="AJ50">
-        <v>12342981000</v>
+        <v>23429237000</v>
       </c>
       <c r="AK50">
-        <v>13104764000</v>
+        <v>24360796000</v>
       </c>
       <c r="AL50">
-        <v>13871695000</v>
+        <v>24466305000</v>
       </c>
       <c r="AM50">
-        <v>14607651000</v>
+        <v>26662713000</v>
       </c>
       <c r="AN50">
-        <v>15301001000</v>
+        <v>28695046000</v>
       </c>
       <c r="AO50">
-        <v>16028741000</v>
+        <v>30605292000</v>
       </c>
       <c r="AP50">
-        <v>15830714000</v>
+        <v>29880062000</v>
       </c>
       <c r="AQ50">
-        <v>16313965000</v>
+        <v>31149050000</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51">
-        <v>5198144500</v>
+        <v>160616330000</v>
       </c>
       <c r="C51">
-        <v>5631772700</v>
+        <v>139530810000</v>
       </c>
       <c r="D51">
-        <v>5844618000</v>
+        <v>130037980000</v>
       </c>
       <c r="E51">
-        <v>5670600000</v>
+        <v>115832520000</v>
       </c>
       <c r="F51">
-        <v>6219578400</v>
+        <v>114540265000</v>
       </c>
       <c r="G51">
-        <v>6601766000</v>
+        <v>121313070000</v>
       </c>
       <c r="H51">
-        <v>6903179300</v>
+        <v>121387000000</v>
       </c>
       <c r="I51">
-        <v>7020231000</v>
+        <v>125271540000</v>
       </c>
       <c r="J51">
-        <v>7560564700</v>
+        <v>134458980000</v>
       </c>
       <c r="K51">
-        <v>7887910400</v>
+        <v>137039766000</v>
       </c>
       <c r="L51">
-        <v>8253518000</v>
+        <v>153178780000</v>
       </c>
       <c r="M51">
-        <v>8779114000</v>
+        <v>153727700000</v>
       </c>
       <c r="N51">
-        <v>9139621000</v>
+        <v>160847130000</v>
       </c>
       <c r="O51">
-        <v>9491483000</v>
+        <v>157573700000</v>
       </c>
       <c r="P51">
-        <v>10271303000</v>
+        <v>154713850000</v>
       </c>
       <c r="Q51">
-        <v>10627558000</v>
+        <v>154601440000</v>
       </c>
       <c r="R51">
-        <v>11193824000</v>
+        <v>161088390000</v>
       </c>
       <c r="S51">
-        <v>11758958000</v>
+        <v>165819710000</v>
       </c>
       <c r="T51">
-        <v>12113653000</v>
+        <v>170099950000</v>
       </c>
       <c r="U51">
-        <v>12648177000</v>
+        <v>171093540000</v>
       </c>
       <c r="V51">
-        <v>13432364000</v>
+        <v>179675480000</v>
       </c>
       <c r="W51">
-        <v>14077103000</v>
+        <v>190308100000</v>
       </c>
       <c r="X51">
-        <v>14094015000</v>
+        <v>219480740000</v>
       </c>
       <c r="Y51">
-        <v>14650030000</v>
+        <v>235606430000</v>
       </c>
       <c r="Z51">
-        <v>15336032000</v>
+        <v>257401320000</v>
       </c>
       <c r="AA51">
-        <v>15869601000</v>
+        <v>273974150000</v>
       </c>
       <c r="AB51">
-        <v>16403552000</v>
+        <v>290575420000</v>
       </c>
       <c r="AC51">
-        <v>16963169000</v>
+        <v>309727630000</v>
       </c>
       <c r="AD51">
-        <v>17998709000</v>
+        <v>330679060000</v>
       </c>
       <c r="AE51">
-        <v>18814605000</v>
+        <v>357255500000</v>
       </c>
       <c r="AF51">
-        <v>19720794000</v>
+        <v>385856140000</v>
       </c>
       <c r="AG51">
-        <v>20395606000</v>
+        <v>406337100000</v>
       </c>
       <c r="AH51">
-        <v>21348106000</v>
+        <v>423525420000</v>
       </c>
       <c r="AI51">
-        <v>22100658000</v>
+        <v>451780200000</v>
       </c>
       <c r="AJ51">
-        <v>23429237000</v>
+        <v>480286240000</v>
       </c>
       <c r="AK51">
-        <v>24360796000</v>
+        <v>493026770000</v>
       </c>
       <c r="AL51">
-        <v>24466305000</v>
+        <v>485055200000</v>
       </c>
       <c r="AM51">
-        <v>26662713000</v>
+        <v>488964200000</v>
       </c>
       <c r="AN51">
-        <v>28695046000</v>
+        <v>498365760000</v>
       </c>
       <c r="AO51">
-        <v>30605292000</v>
+        <v>509371840000</v>
       </c>
       <c r="AP51">
-        <v>29880062000</v>
+        <v>500232420000</v>
       </c>
       <c r="AQ51">
-        <v>31149050000</v>
+        <v>518476820000</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B52">
-        <v>72847250000</v>
+        <v>54119020000</v>
       </c>
       <c r="C52">
-        <v>76238960000</v>
+        <v>58405660000</v>
       </c>
       <c r="D52">
-        <v>76947750000</v>
+        <v>62223920000</v>
       </c>
       <c r="E52">
-        <v>79634580000</v>
+        <v>66441690000</v>
       </c>
       <c r="F52">
-        <v>83451716000</v>
+        <v>69807100000</v>
       </c>
       <c r="G52">
-        <v>84799816000</v>
+        <v>75106935000</v>
       </c>
       <c r="H52">
-        <v>87094000000</v>
+        <v>79239060000</v>
       </c>
       <c r="I52">
-        <v>87939390000</v>
+        <v>84351840000</v>
       </c>
       <c r="J52">
-        <v>87627930000</v>
+        <v>90783900000</v>
       </c>
       <c r="K52">
-        <v>87769230000</v>
+        <v>95286570000</v>
       </c>
       <c r="L52">
-        <v>87903490000</v>
+        <v>99535000000</v>
       </c>
       <c r="M52">
-        <v>86944910000</v>
+        <v>104573034000</v>
       </c>
       <c r="N52">
-        <v>87896460000</v>
+        <v>112631325000</v>
       </c>
       <c r="O52">
-        <v>93514450000</v>
+        <v>114611100000</v>
       </c>
       <c r="P52">
-        <v>98301090000</v>
+        <v>118894590000</v>
       </c>
       <c r="Q52">
-        <v>102943330000</v>
+        <v>124794870000</v>
       </c>
       <c r="R52">
-        <v>106665230000</v>
+        <v>130843160000</v>
       </c>
       <c r="S52">
-        <v>108851700000</v>
+        <v>132170424000</v>
       </c>
       <c r="T52">
-        <v>109719720000</v>
+        <v>135541080000</v>
       </c>
       <c r="U52">
-        <v>115700690000</v>
+        <v>140502060000</v>
       </c>
       <c r="V52">
-        <v>119061955000</v>
+        <v>146487570000</v>
       </c>
       <c r="W52">
-        <v>123186650000</v>
+        <v>151694360000</v>
       </c>
       <c r="X52">
-        <v>128945150000</v>
+        <v>155499360000</v>
       </c>
       <c r="Y52">
-        <v>134812150000</v>
+        <v>164482610000</v>
       </c>
       <c r="Z52">
-        <v>140242780000</v>
+        <v>176895890000</v>
       </c>
       <c r="AA52">
-        <v>144899850000</v>
+        <v>188427340000</v>
       </c>
       <c r="AB52">
-        <v>149074510000</v>
+        <v>199542640000</v>
       </c>
       <c r="AC52">
-        <v>153588730000</v>
+        <v>209186160000</v>
       </c>
       <c r="AD52">
-        <v>151881550000</v>
+        <v>212745270000</v>
       </c>
       <c r="AE52">
-        <v>151676260000</v>
+        <v>218769490000</v>
       </c>
       <c r="AF52">
-        <v>153987610000</v>
+        <v>222284430000</v>
       </c>
       <c r="AG52">
-        <v>157455040000</v>
+        <v>228393710000</v>
       </c>
       <c r="AH52">
-        <v>160990380000</v>
+        <v>236403560000</v>
       </c>
       <c r="AI52">
-        <v>165329750000</v>
+        <v>246796930000</v>
       </c>
       <c r="AJ52">
-        <v>171637780000</v>
+        <v>258333970000</v>
       </c>
       <c r="AK52">
-        <v>178064470000</v>
+        <v>270556140000</v>
       </c>
       <c r="AL52">
-        <v>184772950000</v>
+        <v>285509060000</v>
       </c>
       <c r="AM52">
-        <v>191384650000</v>
+        <v>298164620000</v>
       </c>
       <c r="AN52">
-        <v>197813680000</v>
+        <v>316506800000</v>
       </c>
       <c r="AO52">
-        <v>202150690000</v>
+        <v>324411980000</v>
       </c>
       <c r="AP52">
-        <v>199618430000</v>
+        <v>320278700000</v>
       </c>
       <c r="AQ52">
-        <v>207032270000</v>
+        <v>341055470000</v>
       </c>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53">
-        <v>160616330000</v>
+        <v>10968933000</v>
       </c>
       <c r="C53">
-        <v>139530810000</v>
+        <v>11974835000</v>
       </c>
       <c r="D53">
-        <v>130037980000</v>
+        <v>11807473000</v>
       </c>
       <c r="E53">
-        <v>115832520000</v>
+        <v>11448217000</v>
       </c>
       <c r="F53">
-        <v>114540265000</v>
+        <v>11770667000</v>
       </c>
       <c r="G53">
-        <v>121313070000</v>
+        <v>12303070000</v>
       </c>
       <c r="H53">
-        <v>121387000000</v>
+        <v>12913897000</v>
       </c>
       <c r="I53">
-        <v>125271540000</v>
+        <v>13893069000</v>
       </c>
       <c r="J53">
-        <v>134458980000</v>
+        <v>14714895000</v>
       </c>
       <c r="K53">
-        <v>137039766000</v>
+        <v>15735404000</v>
       </c>
       <c r="L53">
-        <v>153178780000</v>
+        <v>16384218000</v>
       </c>
       <c r="M53">
-        <v>153727700000</v>
+        <v>16956626000</v>
       </c>
       <c r="N53">
-        <v>160847130000</v>
+        <v>17244283000</v>
       </c>
       <c r="O53">
-        <v>157573700000</v>
+        <v>18095522000</v>
       </c>
       <c r="P53">
-        <v>154713850000</v>
+        <v>19057828000</v>
       </c>
       <c r="Q53">
-        <v>154601440000</v>
+        <v>20358107000</v>
       </c>
       <c r="R53">
-        <v>161088390000</v>
+        <v>20678500000</v>
       </c>
       <c r="S53">
-        <v>165819710000</v>
+        <v>21555788000</v>
       </c>
       <c r="T53">
-        <v>170099950000</v>
+        <v>21570454000</v>
       </c>
       <c r="U53">
-        <v>171093540000</v>
+        <v>21275785000</v>
       </c>
       <c r="V53">
-        <v>179675480000</v>
+        <v>20783434000</v>
       </c>
       <c r="W53">
-        <v>190308100000</v>
+        <v>20610089000</v>
       </c>
       <c r="X53">
-        <v>219480740000</v>
+        <v>20605678000</v>
       </c>
       <c r="Y53">
-        <v>235606430000</v>
+        <v>21495996000</v>
       </c>
       <c r="Z53">
-        <v>257401320000</v>
+        <v>22368178000</v>
       </c>
       <c r="AA53">
-        <v>273974150000</v>
+        <v>22845401000</v>
       </c>
       <c r="AB53">
-        <v>290575420000</v>
+        <v>23943606000</v>
       </c>
       <c r="AC53">
-        <v>309727630000</v>
+        <v>25241737000</v>
       </c>
       <c r="AD53">
-        <v>330679060000</v>
+        <v>26881516000</v>
       </c>
       <c r="AE53">
-        <v>357255500000</v>
+        <v>26811318000</v>
       </c>
       <c r="AF53">
-        <v>385856140000</v>
+        <v>29786096000</v>
       </c>
       <c r="AG53">
-        <v>406337100000</v>
+        <v>31062837000</v>
       </c>
       <c r="AH53">
-        <v>423525420000</v>
+        <v>30842900000</v>
       </c>
       <c r="AI53">
-        <v>451780200000</v>
+        <v>33400726000</v>
       </c>
       <c r="AJ53">
-        <v>480286240000</v>
+        <v>35171377000</v>
       </c>
       <c r="AK53">
-        <v>493026770000</v>
+        <v>36211450000</v>
       </c>
       <c r="AL53">
-        <v>485055200000</v>
+        <v>37756960000</v>
       </c>
       <c r="AM53">
-        <v>488964200000</v>
+        <v>39573103000</v>
       </c>
       <c r="AN53">
-        <v>498365760000</v>
+        <v>40841120000</v>
       </c>
       <c r="AO53">
-        <v>509371840000</v>
+        <v>40677000000</v>
       </c>
       <c r="AP53">
-        <v>500232420000</v>
+        <v>40343536000</v>
       </c>
       <c r="AQ53">
-        <v>518476820000</v>
+        <v>41998594000</v>
       </c>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54">
-        <v>54119020000</v>
+        <v>2219861200</v>
       </c>
       <c r="C54">
-        <v>58405660000</v>
+        <v>2340537300</v>
       </c>
       <c r="D54">
-        <v>62223920000</v>
+        <v>2382921000</v>
       </c>
       <c r="E54">
-        <v>66441690000</v>
+        <v>2525428000</v>
       </c>
       <c r="F54">
-        <v>69807100000</v>
+        <v>2418330400</v>
       </c>
       <c r="G54">
-        <v>75106935000</v>
+        <v>2524803300</v>
       </c>
       <c r="H54">
-        <v>79239060000</v>
+        <v>2662964000</v>
       </c>
       <c r="I54">
-        <v>84351840000</v>
+        <v>2662324000</v>
       </c>
       <c r="J54">
-        <v>90783900000</v>
+        <v>2782097200</v>
       </c>
       <c r="K54">
-        <v>95286570000</v>
+        <v>2781080800</v>
       </c>
       <c r="L54">
-        <v>99535000000</v>
+        <v>2714354400</v>
       </c>
       <c r="M54">
-        <v>104573034000</v>
+        <v>2646105300</v>
       </c>
       <c r="N54">
-        <v>112631325000</v>
+        <v>2801503700</v>
       </c>
       <c r="O54">
-        <v>114611100000</v>
+        <v>2574338600</v>
       </c>
       <c r="P54">
-        <v>118894590000</v>
+        <v>1280783200</v>
       </c>
       <c r="Q54">
-        <v>124794870000</v>
+        <v>1731927300</v>
       </c>
       <c r="R54">
-        <v>130843160000</v>
+        <v>1952673400</v>
       </c>
       <c r="S54">
-        <v>132170424000</v>
+        <v>2223114000</v>
       </c>
       <c r="T54">
-        <v>135541080000</v>
+        <v>2420052200</v>
       </c>
       <c r="U54">
-        <v>140502060000</v>
+        <v>2525370000</v>
       </c>
       <c r="V54">
-        <v>146487570000</v>
+        <v>2736766700</v>
       </c>
       <c r="W54">
-        <v>151694360000</v>
+        <v>2968968400</v>
       </c>
       <c r="X54">
-        <v>155499360000</v>
+        <v>3360637000</v>
       </c>
       <c r="Y54">
-        <v>164482610000</v>
+        <v>3434651600</v>
       </c>
       <c r="Z54">
-        <v>176895890000</v>
+        <v>3690453500</v>
       </c>
       <c r="AA54">
-        <v>188427340000</v>
+        <v>4036540700</v>
       </c>
       <c r="AB54">
-        <v>199542640000</v>
+        <v>4408994300</v>
       </c>
       <c r="AC54">
-        <v>209186160000</v>
+        <v>4745546000</v>
       </c>
       <c r="AD54">
-        <v>212745270000</v>
+        <v>5275208000</v>
       </c>
       <c r="AE54">
-        <v>218769490000</v>
+        <v>5604817000</v>
       </c>
       <c r="AF54">
-        <v>222284430000</v>
+        <v>6015911000</v>
       </c>
       <c r="AG54">
-        <v>228393710000</v>
+        <v>6494680600</v>
       </c>
       <c r="AH54">
-        <v>236403560000</v>
+        <v>7055919600</v>
       </c>
       <c r="AI54">
-        <v>246796930000</v>
+        <v>7388947500</v>
       </c>
       <c r="AJ54">
-        <v>258333970000</v>
+        <v>7844636000</v>
       </c>
       <c r="AK54">
-        <v>270556140000</v>
+        <v>8539425000</v>
       </c>
       <c r="AL54">
-        <v>285509060000</v>
+        <v>9049292000</v>
       </c>
       <c r="AM54">
-        <v>298164620000</v>
+        <v>9409118000</v>
       </c>
       <c r="AN54">
-        <v>316506800000</v>
+        <v>10216368000</v>
       </c>
       <c r="AO54">
-        <v>324411980000</v>
+        <v>11182897000</v>
       </c>
       <c r="AP54">
-        <v>320278700000</v>
+        <v>10807280000</v>
       </c>
       <c r="AQ54">
-        <v>341055470000</v>
+        <v>11983601000</v>
       </c>
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55">
-        <v>10968933000</v>
+        <v>342888680000</v>
       </c>
       <c r="C55">
-        <v>11974835000</v>
+        <v>349551030000</v>
       </c>
       <c r="D55">
-        <v>11807473000</v>
+        <v>277089500000</v>
       </c>
       <c r="E55">
-        <v>11448217000</v>
+        <v>232612770000</v>
       </c>
       <c r="F55">
-        <v>11770667000</v>
+        <v>221769650000</v>
       </c>
       <c r="G55">
-        <v>12303070000</v>
+        <v>200048410000</v>
       </c>
       <c r="H55">
-        <v>12913897000</v>
+        <v>234082140000</v>
       </c>
       <c r="I55">
-        <v>13893069000</v>
+        <v>218556660000</v>
       </c>
       <c r="J55">
-        <v>14714895000</v>
+        <v>247207940000</v>
       </c>
       <c r="K55">
-        <v>15735404000</v>
+        <v>245964440000</v>
       </c>
       <c r="L55">
-        <v>16384218000</v>
+        <v>283334870000</v>
       </c>
       <c r="M55">
-        <v>16956626000</v>
+        <v>325857400000</v>
       </c>
       <c r="N55">
-        <v>17244283000</v>
+        <v>338851100000</v>
       </c>
       <c r="O55">
-        <v>18095522000</v>
+        <v>334230060000</v>
       </c>
       <c r="P55">
-        <v>19057828000</v>
+        <v>336097480000</v>
       </c>
       <c r="Q55">
-        <v>20358107000</v>
+        <v>336810300000</v>
       </c>
       <c r="R55">
-        <v>20678500000</v>
+        <v>345693420000</v>
       </c>
       <c r="S55">
-        <v>21555788000</v>
+        <v>349509120000</v>
       </c>
       <c r="T55">
-        <v>21570454000</v>
+        <v>359621700000</v>
       </c>
       <c r="U55">
-        <v>21275785000</v>
+        <v>346088100000</v>
       </c>
       <c r="V55">
-        <v>20783434000</v>
+        <v>365557000000</v>
       </c>
       <c r="W55">
-        <v>20610089000</v>
+        <v>361131050000</v>
       </c>
       <c r="X55">
-        <v>20605678000</v>
+        <v>350950130000</v>
       </c>
       <c r="Y55">
-        <v>21495996000</v>
+        <v>390404150000</v>
       </c>
       <c r="Z55">
-        <v>22368178000</v>
+        <v>421474240000</v>
       </c>
       <c r="AA55">
-        <v>22845401000</v>
+        <v>444966570000</v>
       </c>
       <c r="AB55">
-        <v>23943606000</v>
+        <v>457374040000</v>
       </c>
       <c r="AC55">
-        <v>25241737000</v>
+        <v>465822320000</v>
       </c>
       <c r="AD55">
-        <v>26881516000</v>
+        <v>494935180000</v>
       </c>
       <c r="AE55">
-        <v>26811318000</v>
+        <v>484743220000</v>
       </c>
       <c r="AF55">
-        <v>29786096000</v>
+        <v>509171760000</v>
       </c>
       <c r="AG55">
-        <v>31062837000</v>
+        <v>560073000000</v>
       </c>
       <c r="AH55">
-        <v>30842900000</v>
+        <v>590380900000</v>
       </c>
       <c r="AI55">
-        <v>33400726000</v>
+        <v>606316900000</v>
       </c>
       <c r="AJ55">
-        <v>35171377000</v>
+        <v>628462600000</v>
       </c>
       <c r="AK55">
-        <v>36211450000</v>
+        <v>654269740000</v>
       </c>
       <c r="AL55">
-        <v>37756960000</v>
+        <v>665200360000</v>
       </c>
       <c r="AM55">
-        <v>39573103000</v>
+        <v>660267700000</v>
       </c>
       <c r="AN55">
-        <v>40841120000</v>
+        <v>676868000000</v>
       </c>
       <c r="AO55">
-        <v>40677000000</v>
+        <v>679127200000</v>
       </c>
       <c r="AP55">
-        <v>40343536000</v>
+        <v>651027150000</v>
       </c>
       <c r="AQ55">
-        <v>41998594000</v>
+        <v>672126530000</v>
       </c>
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56">
-        <v>2219861200</v>
+        <v>5916759600</v>
       </c>
       <c r="C56">
-        <v>2340537300</v>
+        <v>6223261000</v>
       </c>
       <c r="D56">
-        <v>2382921000</v>
+        <v>6721768400</v>
       </c>
       <c r="E56">
-        <v>2525428000</v>
+        <v>6342159400</v>
       </c>
       <c r="F56">
-        <v>2418330400</v>
+        <v>6591777000</v>
       </c>
       <c r="G56">
-        <v>2524803300</v>
+        <v>6820055600</v>
       </c>
       <c r="H56">
-        <v>2662964000</v>
+        <v>7033317400</v>
       </c>
       <c r="I56">
-        <v>2662324000</v>
+        <v>7473312300</v>
       </c>
       <c r="J56">
-        <v>2782097200</v>
+        <v>7412287000</v>
       </c>
       <c r="K56">
-        <v>2781080800</v>
+        <v>7706835500</v>
       </c>
       <c r="L56">
-        <v>2714354400</v>
+        <v>7649320400</v>
       </c>
       <c r="M56">
-        <v>2646105300</v>
+        <v>7852790000</v>
       </c>
       <c r="N56">
-        <v>2801503700</v>
+        <v>7956464600</v>
       </c>
       <c r="O56">
-        <v>2574338600</v>
+        <v>8064689700</v>
       </c>
       <c r="P56">
-        <v>1280783200</v>
+        <v>8060857300</v>
       </c>
       <c r="Q56">
-        <v>1731927300</v>
+        <v>8501672000</v>
       </c>
       <c r="R56">
-        <v>1952673400</v>
+        <v>8673404000</v>
       </c>
       <c r="S56">
-        <v>2223114000</v>
+        <v>8937561000</v>
       </c>
       <c r="T56">
-        <v>2420052200</v>
+        <v>9464742000</v>
       </c>
       <c r="U56">
-        <v>2525370000</v>
+        <v>10059440000</v>
       </c>
       <c r="V56">
-        <v>2736766700</v>
+        <v>10450472000</v>
       </c>
       <c r="W56">
-        <v>2968968400</v>
+        <v>10900977000</v>
       </c>
       <c r="X56">
-        <v>3360637000</v>
+        <v>10908465000</v>
       </c>
       <c r="Y56">
-        <v>3434651600</v>
+        <v>11518679000</v>
       </c>
       <c r="Z56">
-        <v>3690453500</v>
+        <v>12053526000</v>
       </c>
       <c r="AA56">
-        <v>4036540700</v>
+        <v>12573061000</v>
       </c>
       <c r="AB56">
-        <v>4408994300</v>
+        <v>12866110000</v>
       </c>
       <c r="AC56">
-        <v>4745546000</v>
+        <v>13229851000</v>
       </c>
       <c r="AD56">
-        <v>5275208000</v>
+        <v>13719774000</v>
       </c>
       <c r="AE56">
-        <v>5604817000</v>
+        <v>14097357000</v>
       </c>
       <c r="AF56">
-        <v>6015911000</v>
+        <v>14575383000</v>
       </c>
       <c r="AG56">
-        <v>6494680600</v>
+        <v>14769831000</v>
       </c>
       <c r="AH56">
-        <v>7055919600</v>
+        <v>15361067000</v>
       </c>
       <c r="AI56">
-        <v>7388947500</v>
+        <v>15731635000</v>
       </c>
       <c r="AJ56">
-        <v>7844636000</v>
+        <v>16710784000</v>
       </c>
       <c r="AK56">
-        <v>8539425000</v>
+        <v>17774766000</v>
       </c>
       <c r="AL56">
-        <v>9049292000</v>
+        <v>18906964000</v>
       </c>
       <c r="AM56">
-        <v>9409118000</v>
+        <v>20304894000</v>
       </c>
       <c r="AN56">
-        <v>10216368000</v>
+        <v>21565673000</v>
       </c>
       <c r="AO56">
-        <v>11182897000</v>
+        <v>22560635000</v>
       </c>
       <c r="AP56">
-        <v>10807280000</v>
+        <v>22859676000</v>
       </c>
       <c r="AQ56">
-        <v>11983601000</v>
+        <v>24246002000</v>
       </c>
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57">
-        <v>342888680000</v>
+        <v>33684535000</v>
       </c>
       <c r="C57">
-        <v>349551030000</v>
+        <v>37327830000</v>
       </c>
       <c r="D57">
-        <v>277089500000</v>
+        <v>39978906000</v>
       </c>
       <c r="E57">
-        <v>232612770000</v>
+        <v>43398894000</v>
       </c>
       <c r="F57">
-        <v>221769650000</v>
+        <v>47214650000</v>
       </c>
       <c r="G57">
-        <v>200048410000</v>
+        <v>46920643000</v>
       </c>
       <c r="H57">
-        <v>234082140000</v>
+        <v>47550697000</v>
       </c>
       <c r="I57">
-        <v>218556660000</v>
+        <v>52685190000</v>
       </c>
       <c r="J57">
-        <v>247207940000</v>
+        <v>58619437000</v>
       </c>
       <c r="K57">
-        <v>245964440000</v>
+        <v>64574484000</v>
       </c>
       <c r="L57">
-        <v>283334870000</v>
+        <v>70916280000</v>
       </c>
       <c r="M57">
-        <v>325857400000</v>
+        <v>75659444000</v>
       </c>
       <c r="N57">
-        <v>338851100000</v>
+        <v>80683080000</v>
       </c>
       <c r="O57">
-        <v>334230060000</v>
+        <v>89929080000</v>
       </c>
       <c r="P57">
-        <v>336097480000</v>
+        <v>99907330000</v>
       </c>
       <c r="Q57">
-        <v>336810300000</v>
+        <v>107076080000</v>
       </c>
       <c r="R57">
-        <v>345693420000</v>
+        <v>115076150000</v>
       </c>
       <c r="S57">
-        <v>349509120000</v>
+        <v>124646130000</v>
       </c>
       <c r="T57">
-        <v>359621700000</v>
+        <v>121915110000</v>
       </c>
       <c r="U57">
-        <v>346088100000</v>
+        <v>128886680000</v>
       </c>
       <c r="V57">
-        <v>365557000000</v>
+        <v>140535860000</v>
       </c>
       <c r="W57">
-        <v>361131050000</v>
+        <v>139030920000</v>
       </c>
       <c r="X57">
-        <v>350950130000</v>
+        <v>144485600000</v>
       </c>
       <c r="Y57">
-        <v>390404150000</v>
+        <v>151057170000</v>
       </c>
       <c r="Z57">
-        <v>421474240000</v>
+        <v>166072220000</v>
       </c>
       <c r="AA57">
-        <v>444966570000</v>
+        <v>178305650000</v>
       </c>
       <c r="AB57">
-        <v>457374040000</v>
+        <v>194365210000</v>
       </c>
       <c r="AC57">
-        <v>465822320000</v>
+        <v>211899900000</v>
       </c>
       <c r="AD57">
-        <v>494935180000</v>
+        <v>215848630000</v>
       </c>
       <c r="AE57">
-        <v>484743220000</v>
+        <v>216124820000</v>
       </c>
       <c r="AF57">
-        <v>509171760000</v>
+        <v>247505600000</v>
       </c>
       <c r="AG57">
-        <v>560073000000</v>
+        <v>262887920000</v>
       </c>
       <c r="AH57">
-        <v>590380900000</v>
+        <v>274548300000</v>
       </c>
       <c r="AI57">
-        <v>606316900000</v>
+        <v>287775030000</v>
       </c>
       <c r="AJ57">
-        <v>628462600000</v>
+        <v>299100540000</v>
       </c>
       <c r="AK57">
-        <v>654269740000</v>
+        <v>308004160000</v>
       </c>
       <c r="AL57">
-        <v>665200360000</v>
+        <v>318974330000</v>
       </c>
       <c r="AM57">
-        <v>660267700000</v>
+        <v>333843100000</v>
       </c>
       <c r="AN57">
-        <v>676868000000</v>
+        <v>346066120000</v>
       </c>
       <c r="AO57">
-        <v>679127200000</v>
+        <v>349857870000</v>
       </c>
       <c r="AP57">
-        <v>651027150000</v>
+        <v>335362880000</v>
       </c>
       <c r="AQ57">
-        <v>672126530000</v>
+        <v>360897280000</v>
       </c>
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58">
-        <v>5916759600</v>
+        <v>15071104000</v>
       </c>
       <c r="C58">
-        <v>6223261000</v>
+        <v>15930084000</v>
       </c>
       <c r="D58">
-        <v>6721768400</v>
+        <v>16589828000</v>
       </c>
       <c r="E58">
-        <v>6342159400</v>
+        <v>17388462000</v>
       </c>
       <c r="F58">
-        <v>6591777000</v>
+        <v>18275125000</v>
       </c>
       <c r="G58">
-        <v>6820055600</v>
+        <v>19188773000</v>
       </c>
       <c r="H58">
-        <v>7033317400</v>
+        <v>20024547000</v>
       </c>
       <c r="I58">
-        <v>7473312300</v>
+        <v>20370094000</v>
       </c>
       <c r="J58">
-        <v>7412287000</v>
+        <v>20873781000</v>
       </c>
       <c r="K58">
-        <v>7706835500</v>
+        <v>21353734000</v>
       </c>
       <c r="L58">
-        <v>7649320400</v>
+        <v>22720370000</v>
       </c>
       <c r="M58">
-        <v>7852790000</v>
+        <v>23765506000</v>
       </c>
       <c r="N58">
-        <v>7956464600</v>
+        <v>24811186000</v>
       </c>
       <c r="O58">
-        <v>8064689700</v>
+        <v>26523173000</v>
       </c>
       <c r="P58">
-        <v>8060857300</v>
+        <v>28008450000</v>
       </c>
       <c r="Q58">
-        <v>8501672000</v>
+        <v>29548937000</v>
       </c>
       <c r="R58">
-        <v>8673404000</v>
+        <v>30671788000</v>
       </c>
       <c r="S58">
-        <v>8937561000</v>
+        <v>32636439000</v>
       </c>
       <c r="T58">
-        <v>9464742000</v>
+        <v>34169836000</v>
       </c>
       <c r="U58">
-        <v>10059440000</v>
+        <v>35639325000</v>
       </c>
       <c r="V58">
-        <v>10450472000</v>
+        <v>37777695000</v>
       </c>
       <c r="W58">
-        <v>10900977000</v>
+        <v>37193875000</v>
       </c>
       <c r="X58">
-        <v>10908465000</v>
+        <v>38668493000</v>
       </c>
       <c r="Y58">
-        <v>11518679000</v>
+        <v>40965505000</v>
       </c>
       <c r="Z58">
-        <v>12053526000</v>
+        <v>43196100000</v>
       </c>
       <c r="AA58">
-        <v>12573061000</v>
+        <v>45892293000</v>
       </c>
       <c r="AB58">
-        <v>12866110000</v>
+        <v>49411450000</v>
       </c>
       <c r="AC58">
-        <v>13229851000</v>
+        <v>52769858000</v>
       </c>
       <c r="AD58">
-        <v>13719774000</v>
+        <v>55909710000</v>
       </c>
       <c r="AE58">
-        <v>14097357000</v>
+        <v>57888310000</v>
       </c>
       <c r="AF58">
-        <v>14575383000</v>
+        <v>62528614000</v>
       </c>
       <c r="AG58">
-        <v>14769831000</v>
+        <v>67949523000</v>
       </c>
       <c r="AH58">
-        <v>15361067000</v>
+        <v>73815050000</v>
       </c>
       <c r="AI58">
-        <v>15731635000</v>
+        <v>76805850000</v>
       </c>
       <c r="AJ58">
-        <v>16710784000</v>
+        <v>81704510000</v>
       </c>
       <c r="AK58">
-        <v>17774766000</v>
+        <v>85140960000</v>
       </c>
       <c r="AL58">
-        <v>18906964000</v>
+        <v>89443670000</v>
       </c>
       <c r="AM58">
-        <v>20304894000</v>
+        <v>95222340000</v>
       </c>
       <c r="AN58">
-        <v>21565673000</v>
+        <v>97422060000</v>
       </c>
       <c r="AO58">
-        <v>22560635000</v>
+        <v>97207255000</v>
       </c>
       <c r="AP58">
-        <v>22859676000</v>
+        <v>93831930000</v>
       </c>
       <c r="AQ58">
-        <v>24246002000</v>
+        <v>96953500000</v>
       </c>
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59">
-        <v>33684535000</v>
+        <v>115650050000</v>
       </c>
       <c r="C59">
-        <v>37327830000</v>
+        <v>121038390000</v>
       </c>
       <c r="D59">
-        <v>39978906000</v>
+        <v>112905440000</v>
       </c>
       <c r="E59">
-        <v>43398894000</v>
+        <v>107547150000</v>
       </c>
       <c r="F59">
-        <v>47214650000</v>
+        <v>111867265000</v>
       </c>
       <c r="G59">
-        <v>46920643000</v>
+        <v>107846220000</v>
       </c>
       <c r="H59">
-        <v>47550697000</v>
+        <v>91714440000</v>
       </c>
       <c r="I59">
-        <v>52685190000</v>
+        <v>94816210000</v>
       </c>
       <c r="J59">
-        <v>58619437000</v>
+        <v>92333060000</v>
       </c>
       <c r="K59">
-        <v>64574484000</v>
+        <v>103725010000</v>
       </c>
       <c r="L59">
-        <v>70916280000</v>
+        <v>122735714000</v>
       </c>
       <c r="M59">
-        <v>75659444000</v>
+        <v>123791335000</v>
       </c>
       <c r="N59">
-        <v>80683080000</v>
+        <v>127932090000</v>
       </c>
       <c r="O59">
-        <v>89929080000</v>
+        <v>129545560000</v>
       </c>
       <c r="P59">
-        <v>99907330000</v>
+        <v>138479200000</v>
       </c>
       <c r="Q59">
-        <v>107076080000</v>
+        <v>147740540000</v>
       </c>
       <c r="R59">
-        <v>115076150000</v>
+        <v>156307140000</v>
       </c>
       <c r="S59">
-        <v>124646130000</v>
+        <v>169109320000</v>
       </c>
       <c r="T59">
-        <v>121915110000</v>
+        <v>169603100000</v>
       </c>
       <c r="U59">
-        <v>128886680000</v>
+        <v>174525350000</v>
       </c>
       <c r="V59">
-        <v>140535860000</v>
+        <v>193466070000</v>
       </c>
       <c r="W59">
-        <v>139030920000</v>
+        <v>196172820000</v>
       </c>
       <c r="X59">
-        <v>144485600000</v>
+        <v>200946610000</v>
       </c>
       <c r="Y59">
-        <v>151057170000</v>
+        <v>218631000000</v>
       </c>
       <c r="Z59">
-        <v>166072220000</v>
+        <v>239546190000</v>
       </c>
       <c r="AA59">
-        <v>178305650000</v>
+        <v>251176500000</v>
       </c>
       <c r="AB59">
-        <v>194365210000</v>
+        <v>275885520000</v>
       </c>
       <c r="AC59">
-        <v>211899900000</v>
+        <v>284670800000</v>
       </c>
       <c r="AD59">
-        <v>215848630000</v>
+        <v>293757030000</v>
       </c>
       <c r="AE59">
-        <v>216124820000</v>
+        <v>278355570000</v>
       </c>
       <c r="AF59">
-        <v>247505600000</v>
+        <v>282817200000</v>
       </c>
       <c r="AG59">
-        <v>262887920000</v>
+        <v>302412200000</v>
       </c>
       <c r="AH59">
-        <v>274548300000</v>
+        <v>316857320000</v>
       </c>
       <c r="AI59">
-        <v>287775030000</v>
+        <v>332876220000</v>
       </c>
       <c r="AJ59">
-        <v>299100540000</v>
+        <v>346742820000</v>
       </c>
       <c r="AK59">
-        <v>308004160000</v>
+        <v>370275500000</v>
       </c>
       <c r="AL59">
-        <v>318974330000</v>
+        <v>390868300000</v>
       </c>
       <c r="AM59">
-        <v>333843100000</v>
+        <v>393741470000</v>
       </c>
       <c r="AN59">
-        <v>346066120000</v>
+        <v>398914880000</v>
       </c>
       <c r="AO59">
-        <v>349857870000</v>
+        <v>403336230000</v>
       </c>
       <c r="AP59">
-        <v>335362880000</v>
+        <v>383342640000</v>
       </c>
       <c r="AQ59">
-        <v>360897280000</v>
+        <v>398355500000</v>
       </c>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60">
-        <v>15071104000</v>
+        <v>10836657000</v>
       </c>
       <c r="C60">
-        <v>15930084000</v>
+        <v>12193995000</v>
       </c>
       <c r="D60">
-        <v>16589828000</v>
+        <v>12515220000</v>
       </c>
       <c r="E60">
-        <v>17388462000</v>
+        <v>12713626000</v>
       </c>
       <c r="F60">
-        <v>18275125000</v>
+        <v>12471131000</v>
       </c>
       <c r="G60">
-        <v>19188773000</v>
+        <v>13337174000</v>
       </c>
       <c r="H60">
-        <v>20024547000</v>
+        <v>13617125000</v>
       </c>
       <c r="I60">
-        <v>20370094000</v>
+        <v>13773823000</v>
       </c>
       <c r="J60">
-        <v>20873781000</v>
+        <v>14814074000</v>
       </c>
       <c r="K60">
-        <v>21353734000</v>
+        <v>15584371000</v>
       </c>
       <c r="L60">
-        <v>22720370000</v>
+        <v>16673493000</v>
       </c>
       <c r="M60">
-        <v>23765506000</v>
+        <v>17595834000</v>
       </c>
       <c r="N60">
-        <v>24811186000</v>
+        <v>16009469000</v>
       </c>
       <c r="O60">
-        <v>26523173000</v>
+        <v>16177802000</v>
       </c>
       <c r="P60">
-        <v>28008450000</v>
+        <v>17671854000</v>
       </c>
       <c r="Q60">
-        <v>29548937000</v>
+        <v>17699780000</v>
       </c>
       <c r="R60">
-        <v>30671788000</v>
+        <v>19533600000</v>
       </c>
       <c r="S60">
-        <v>32636439000</v>
+        <v>20057217000</v>
       </c>
       <c r="T60">
-        <v>34169836000</v>
+        <v>20635910000</v>
       </c>
       <c r="U60">
-        <v>35639325000</v>
+        <v>20467147000</v>
       </c>
       <c r="V60">
-        <v>37777695000</v>
+        <v>19841018000</v>
       </c>
       <c r="W60">
-        <v>37193875000</v>
+        <v>20126652000</v>
       </c>
       <c r="X60">
-        <v>38668493000</v>
+        <v>18336582000</v>
       </c>
       <c r="Y60">
-        <v>40965505000</v>
+        <v>15220267000</v>
       </c>
       <c r="Z60">
-        <v>43196100000</v>
+        <v>14336344000</v>
       </c>
       <c r="AA60">
-        <v>45892293000</v>
+        <v>13517583000</v>
       </c>
       <c r="AB60">
-        <v>49411450000</v>
+        <v>13049673000</v>
       </c>
       <c r="AC60">
-        <v>52769858000</v>
+        <v>12572926000</v>
       </c>
       <c r="AD60">
-        <v>55909710000</v>
+        <v>10351422000</v>
       </c>
       <c r="AE60">
-        <v>57888310000</v>
+        <v>11595617000</v>
       </c>
       <c r="AF60">
-        <v>62528614000</v>
+        <v>14083116000</v>
       </c>
       <c r="AG60">
-        <v>67949523000</v>
+        <v>16142097000</v>
       </c>
       <c r="AH60">
-        <v>73815050000</v>
+        <v>18683650000</v>
       </c>
       <c r="AI60">
-        <v>76805850000</v>
+        <v>19280916000</v>
       </c>
       <c r="AJ60">
-        <v>81704510000</v>
+        <v>19567150000</v>
       </c>
       <c r="AK60">
-        <v>85140960000</v>
+        <v>19963120000</v>
       </c>
       <c r="AL60">
-        <v>89443670000</v>
+        <v>20142980000</v>
       </c>
       <c r="AM60">
-        <v>95222340000</v>
+        <v>20964866000</v>
       </c>
       <c r="AN60">
-        <v>97422060000</v>
+        <v>22015179000</v>
       </c>
       <c r="AO60">
-        <v>97207255000</v>
+        <v>20621079000</v>
       </c>
       <c r="AP60">
-        <v>93831930000</v>
+        <v>19009139000</v>
       </c>
       <c r="AQ60">
-        <v>96953500000</v>
+        <v>20618836000</v>
       </c>
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61">
-        <v>238138030000</v>
-      </c>
-      <c r="C61">
-        <v>239221150000</v>
-      </c>
-      <c r="D61">
-        <v>242208230000</v>
-      </c>
-      <c r="E61">
-        <v>246811720000</v>
-      </c>
-      <c r="F61">
-        <v>257250700000</v>
-      </c>
-      <c r="G61">
-        <v>262808290000</v>
-      </c>
-      <c r="H61">
-        <v>269881310000</v>
-      </c>
-      <c r="I61">
-        <v>278932720000</v>
-      </c>
-      <c r="J61">
-        <v>286070700000</v>
-      </c>
-      <c r="K61">
-        <v>293665300000</v>
-      </c>
-      <c r="L61">
-        <v>295881540000</v>
-      </c>
-      <c r="M61">
-        <v>292490800000</v>
-      </c>
-      <c r="N61">
-        <v>289102040000</v>
-      </c>
-      <c r="O61">
-        <v>283130300000</v>
-      </c>
-      <c r="P61">
-        <v>294257230000</v>
-      </c>
-      <c r="Q61">
-        <v>305836820000</v>
-      </c>
-      <c r="R61">
-        <v>310667380000</v>
-      </c>
-      <c r="S61">
-        <v>320206500000</v>
-      </c>
-      <c r="T61">
-        <v>334013300000</v>
-      </c>
-      <c r="U61">
-        <v>348199450000</v>
-      </c>
-      <c r="V61">
-        <v>364795850000</v>
-      </c>
-      <c r="W61">
-        <v>370083560000</v>
-      </c>
-      <c r="X61">
-        <v>378214020000</v>
-      </c>
-      <c r="Y61">
-        <v>386950040000</v>
-      </c>
-      <c r="Z61">
-        <v>403731500000</v>
-      </c>
-      <c r="AA61">
-        <v>415273400000</v>
-      </c>
-      <c r="AB61">
-        <v>434636650000</v>
-      </c>
-      <c r="AC61">
-        <v>449584760000</v>
-      </c>
-      <c r="AD61">
-        <v>447559140000</v>
-      </c>
-      <c r="AE61">
-        <v>428136000000</v>
-      </c>
-      <c r="AF61">
-        <v>453619120000</v>
-      </c>
-      <c r="AG61">
-        <v>468113750000</v>
-      </c>
-      <c r="AH61">
-        <v>465359830000</v>
-      </c>
-      <c r="AI61">
-        <v>470887240000</v>
-      </c>
-      <c r="AJ61">
-        <v>483402480000</v>
-      </c>
-      <c r="AK61">
-        <v>505103780000</v>
-      </c>
-      <c r="AL61">
-        <v>515562440000</v>
-      </c>
-      <c r="AM61">
-        <v>528801700000</v>
-      </c>
-      <c r="AN61">
-        <v>539113420000</v>
-      </c>
-      <c r="AO61">
-        <v>549821300000</v>
-      </c>
-      <c r="AP61">
-        <v>537888980000</v>
-      </c>
-      <c r="AQ61">
-        <v>565187300000</v>
-      </c>
+      <c r="A61" s="6"/>
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B62">
-        <v>115650050000</v>
-      </c>
-      <c r="C62">
-        <v>121038390000</v>
-      </c>
-      <c r="D62">
-        <v>112905440000</v>
-      </c>
-      <c r="E62">
-        <v>107547150000</v>
-      </c>
-      <c r="F62">
-        <v>111867265000</v>
-      </c>
-      <c r="G62">
-        <v>107846220000</v>
-      </c>
-      <c r="H62">
-        <v>91714440000</v>
-      </c>
-      <c r="I62">
-        <v>94816210000</v>
-      </c>
-      <c r="J62">
-        <v>92333060000</v>
-      </c>
-      <c r="K62">
-        <v>103725010000</v>
-      </c>
-      <c r="L62">
-        <v>122735714000</v>
-      </c>
-      <c r="M62">
-        <v>123791335000</v>
-      </c>
-      <c r="N62">
-        <v>127932090000</v>
-      </c>
-      <c r="O62">
-        <v>129545560000</v>
-      </c>
-      <c r="P62">
-        <v>138479200000</v>
-      </c>
-      <c r="Q62">
-        <v>147740540000</v>
-      </c>
-      <c r="R62">
-        <v>156307140000</v>
-      </c>
-      <c r="S62">
-        <v>169109320000</v>
-      </c>
-      <c r="T62">
-        <v>169603100000</v>
-      </c>
-      <c r="U62">
-        <v>174525350000</v>
-      </c>
-      <c r="V62">
-        <v>193466070000</v>
-      </c>
-      <c r="W62">
-        <v>196172820000</v>
-      </c>
-      <c r="X62">
-        <v>200946610000</v>
-      </c>
-      <c r="Y62">
-        <v>218631000000</v>
-      </c>
-      <c r="Z62">
-        <v>239546190000</v>
-      </c>
-      <c r="AA62">
-        <v>251176500000</v>
-      </c>
-      <c r="AB62">
-        <v>275885520000</v>
-      </c>
-      <c r="AC62">
-        <v>284670800000</v>
-      </c>
-      <c r="AD62">
-        <v>293757030000</v>
-      </c>
-      <c r="AE62">
-        <v>278355570000</v>
-      </c>
-      <c r="AF62">
-        <v>282817200000</v>
-      </c>
-      <c r="AG62">
-        <v>302412200000</v>
-      </c>
-      <c r="AH62">
-        <v>316857320000</v>
-      </c>
-      <c r="AI62">
-        <v>332876220000</v>
-      </c>
-      <c r="AJ62">
-        <v>346742820000</v>
-      </c>
-      <c r="AK62">
-        <v>370275500000</v>
-      </c>
-      <c r="AL62">
-        <v>390868300000</v>
-      </c>
-      <c r="AM62">
-        <v>393741470000</v>
-      </c>
-      <c r="AN62">
-        <v>398914880000</v>
-      </c>
-      <c r="AO62">
-        <v>403336230000</v>
-      </c>
-      <c r="AP62">
-        <v>383342640000</v>
-      </c>
-      <c r="AQ62">
-        <v>398355500000</v>
-      </c>
+      <c r="A62" s="6"/>
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B63">
-        <v>10836657000</v>
-      </c>
-      <c r="C63">
-        <v>12193995000</v>
-      </c>
-      <c r="D63">
-        <v>12515220000</v>
-      </c>
-      <c r="E63">
-        <v>12713626000</v>
-      </c>
-      <c r="F63">
-        <v>12471131000</v>
-      </c>
-      <c r="G63">
-        <v>13337174000</v>
-      </c>
-      <c r="H63">
-        <v>13617125000</v>
-      </c>
-      <c r="I63">
-        <v>13773823000</v>
-      </c>
-      <c r="J63">
-        <v>14814074000</v>
-      </c>
-      <c r="K63">
-        <v>15584371000</v>
-      </c>
-      <c r="L63">
-        <v>16673493000</v>
-      </c>
-      <c r="M63">
-        <v>17595834000</v>
-      </c>
-      <c r="N63">
-        <v>16009469000</v>
-      </c>
-      <c r="O63">
-        <v>16177802000</v>
-      </c>
-      <c r="P63">
-        <v>17671854000</v>
-      </c>
-      <c r="Q63">
-        <v>17699780000</v>
-      </c>
-      <c r="R63">
-        <v>19533600000</v>
-      </c>
-      <c r="S63">
-        <v>20057217000</v>
-      </c>
-      <c r="T63">
-        <v>20635910000</v>
-      </c>
-      <c r="U63">
-        <v>20467147000</v>
-      </c>
-      <c r="V63">
-        <v>19841018000</v>
-      </c>
-      <c r="W63">
-        <v>20126652000</v>
-      </c>
-      <c r="X63">
-        <v>18336582000</v>
-      </c>
-      <c r="Y63">
-        <v>15220267000</v>
-      </c>
-      <c r="Z63">
-        <v>14336344000</v>
-      </c>
-      <c r="AA63">
-        <v>13517583000</v>
-      </c>
-      <c r="AB63">
-        <v>13049673000</v>
-      </c>
-      <c r="AC63">
-        <v>12572926000</v>
-      </c>
-      <c r="AD63">
-        <v>10351422000</v>
-      </c>
-      <c r="AE63">
-        <v>11595617000</v>
-      </c>
-      <c r="AF63">
-        <v>14083116000</v>
-      </c>
-      <c r="AG63">
-        <v>16142097000</v>
-      </c>
-      <c r="AH63">
-        <v>18683650000</v>
-      </c>
-      <c r="AI63">
-        <v>19280916000</v>
-      </c>
-      <c r="AJ63">
-        <v>19567150000</v>
-      </c>
-      <c r="AK63">
-        <v>19963120000</v>
-      </c>
-      <c r="AL63">
-        <v>20142980000</v>
-      </c>
-      <c r="AM63">
-        <v>20964866000</v>
-      </c>
-      <c r="AN63">
-        <v>22015179000</v>
-      </c>
-      <c r="AO63">
-        <v>20621079000</v>
-      </c>
-      <c r="AP63">
-        <v>19009139000</v>
-      </c>
-      <c r="AQ63">
-        <v>20618836000</v>
-      </c>
+      <c r="A63" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AQ29">
